--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -115,6 +115,8 @@
 WORK_TYPE_CODE, PRIZE, COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX, LOCALIZATION, 
 Łukasz:
 Jasne, tabele dodam. Tylko czy jak pojawi się nowy stopień skomplikowanie, np. łatwe albo bardzo trudne to nie trzeba modyfikować kodu ? Gdyby zamiast COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX zrobić jedną kolumnę z wartościami słownikowymi takimi jak w WO to będzie po prostu złączenie. A obecnie trzeba będzie  robić CASE'a w triggerze i dla nowych trudności dodawać przypadek.
+Łukasz:
+To pole LOCALIZATION, to jest to samo co w PERSON pole zawierające lokalizację, czyli miasto gdzie jest biuro?
 </t>
   </si>
   <si>
@@ -321,18 +323,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.515306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,27 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>slowniki w jednej tabelce</t>
-  </si>
-  <si>
-    <t>Kuba:
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slowniki w jednej tabelce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Osobiscie nie podoba mi sie ze slowniki sa w jednej tabelce CODE_*
 Łukasz:
 Nie trzeba wtedy mnożyć tabel słownikowych i uslug do ich wyciągania.
@@ -51,10 +51,20 @@
 </t>
   </si>
   <si>
-    <t>filtry do pobierania orderów</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtry do pobierania orderów</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kuba:
 potrzebujemy filtrow - bedziemy filtrowac po
 a) zakresie dat (zgloszenia i/lub wykonania) 
 b) zlecenia, po lokalizacji biura
@@ -66,32 +76,76 @@
 - po typach
 - po fragmencie opisu
 </t>
-  </si>
-  <si>
-    <t>po co tabela kontakt</t>
-  </si>
-  <si>
-    <t>Kuba:
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kuba: Filtrowac bedziemy w tabeli wynikow, zostawiamy jedynie zakres dat – tylko uwaga trzeba sie umowic co to za daty – proponujeostatniej zmiany statusu?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">po co tabela kontakt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kuba:
 Nie kumam co to jest tabela CONTACT wydaje mi sie ze to maja byc ci przedstawiciele inwestora zlecajacy prace ale czemu type?
 Łukasz:
 Hmm… zdaje się, że planowałem powiadomienie mailem dla pracownika jak zostanie przypisane mu zlecenie. Ale w sumie to można dodać pole do PERSON
 </t>
-  </si>
-  <si>
-    <t>pole Version w orderze</t>
-  </si>
-  <si>
-    <t>Kuba:
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kuba: na razie to ojelmy ja bym to wywalil z modelu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pole Version w orderze</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kuba:
 Czemu WO ma Version? czy to jest trudny latwy? jesli nie to tego brakuje,
 Łukasz:
 Żeby łatwiej przeglądać historię. Teoretycznie data LAST_MOD wystarczy, ale tak od razu jest info, ile razy workordr był zmieniany. Można usunąć.
 </t>
-  </si>
-  <si>
-    <t>brak współczynnika pracochłonnosci</t>
-  </si>
-  <si>
-    <t>Kuba:
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kuba: do usuniecia – nie potrzebne wg mnie</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">brak współczynnika pracochłonnosci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 nie widze tez parametryzacji wspolczynnikow pracochlonnosci typowych prac wzgledem lokalizacji biura - i to powinno byc per typ pracy
 Łukasz:
 O ile kumam dobrze, to jest to samo co pkt. 7.
@@ -99,18 +153,25 @@
 </t>
   </si>
   <si>
-    <t>uslugi do definicji typow zlecenia </t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">uslugi do definicji typow zlecenia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Dodalem w docu (mail z 28 lipca)
 </t>
   </si>
   <si>
-    <t>brak cen</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">brak cen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kuba:
 Brakuje cen - powinna byc wg mnie tabelka WORK_TYPE z takimi kolumnami
 WORK_TYPE_CODE, PRIZE, COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX, LOCALIZATION, 
 Łukasz:
@@ -118,12 +179,29 @@
 Łukasz:
 To pole LOCALIZATION, to jest to samo co w PERSON pole zawierające lokalizację, czyli miasto gdzie jest biuro?
 </t>
-  </si>
-  <si>
-    <t>brak pól w order</t>
-  </si>
-  <si>
-    <t>Kuba:
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kuba: To jest lokalizacja biura, ktore wykona to zlecenie – ale tu bedzie pytanie do inwestora, czy takie zlecenie ma szanse przejsc do innego biura</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">brak pól w order</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kuba:
 WORK_TYPE - moze to VERSION oraz koniecznie PRICE, VENTURE_REPRESENTATIVE,  oraz ew. ADDRESS 
 P.S. najlepiej przygotowac jeszcze rekord testowy gdzie WORK_TYPE="OTHER" i wtedy DESCRIPTION, 
 Łukasz:
@@ -132,6 +210,16 @@
 Adres lokalizacji już jest – referencja z ADDRESS do WORK_ORDER.
 Rekord testowy dodam. Ogólnie trochę jeszcze po zmieniałem, bo były błędy.
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kuba: tak to moze byc specjalna rola w PERSON, ktora nie bedzie miec konta w account</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -139,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,6 +257,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,13 +326,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -268,7 +376,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -323,20 +431,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -367,102 +475,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="215.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,25 +22,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slowniki w jednej tabelce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuba:
+    <t>No</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>slowniki w jednej tabelce</t>
+  </si>
+  <si>
+    <t>Kuba:
 Osobiscie nie podoba mi sie ze slowniki sa w jednej tabelce CODE_*
 Łukasz:
 Nie trzeba wtedy mnożyć tabel słownikowych i uslug do ich wyciągania.
@@ -51,20 +51,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filtry do pobierania orderów</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kuba:
+    <t>filtry do pobierania orderów</t>
+  </si>
+  <si>
+    <t>Kuba:
 potrzebujemy filtrow - bedziemy filtrowac po
 a) zakresie dat (zgloszenia i/lub wykonania) 
 b) zlecenia, po lokalizacji biura
@@ -75,133 +65,76 @@
 c) tu bym rodzielił jako dwa filtry i na ekranie wykorzystywał je razem
 - po typach
 - po fragmencie opisu
+Kuba: Filtrowac bedziemy w tabeli wynikow, zostawiamy jedynie zakres dat – tylko uwaga trzeba sie umowic co to za daty – proponujeostatniej zmiany statusu?
+Łukasz:
+Tak to jest, po typie lub/i po dacie ostatniej modyfikacji (gdzie modyfikacja tylko na różnicę STATUS_CODE): dwa kresy przedziału (przed i po)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Kuba: Filtrowac bedziemy w tabeli wynikow, zostawiamy jedynie zakres dat – tylko uwaga trzeba sie umowic co to za daty – proponujeostatniej zmiany statusu?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">po co tabela kontakt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kuba:
+  </si>
+  <si>
+    <t>po co tabela kontakt</t>
+  </si>
+  <si>
+    <t>Kuba:
 Nie kumam co to jest tabela CONTACT wydaje mi sie ze to maja byc ci przedstawiciele inwestora zlecajacy prace ale czemu type?
 Łukasz:
 Hmm… zdaje się, że planowałem powiadomienie mailem dla pracownika jak zostanie przypisane mu zlecenie. Ale w sumie to można dodać pole do PERSON
+Kuba: na razie to ojelmy ja bym to wywalil z modelu
+Łukasz:
+Wywalone
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Kuba: na razie to ojelmy ja bym to wywalil z modelu</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">pole Version w orderze</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kuba:
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>pole Version w orderze</t>
+  </si>
+  <si>
+    <t>Kuba:
 Czemu WO ma Version? czy to jest trudny latwy? jesli nie to tego brakuje,
 Łukasz:
 Żeby łatwiej przeglądać historię. Teoretycznie data LAST_MOD wystarczy, ale tak od razu jest info, ile razy workordr był zmieniany. Można usunąć.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 Kuba: do usuniecia – nie potrzebne wg mnie</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">brak współczynnika pracochłonnosci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuba:
+  </si>
+  <si>
+    <t>brak współczynnika pracochłonnosci</t>
+  </si>
+  <si>
+    <t>Kuba:
 nie widze tez parametryzacji wspolczynnikow pracochlonnosci typowych prac wzgledem lokalizacji biura - i to powinno byc per typ pracy
 Łukasz:
 O ile kumam dobrze, to jest to samo co pkt. 7.
 No ja wyobraziłem to sobie, że nie trzeba oddzielnej tabelki i zakodowałem w godzinach w CODE_REFERENCE. Nie upieram się, możemy dodać nową tabelkę.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uslugi do definicji typow zlecenia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuba:
+Lukasz:
+Jest oddzielna tabelka</t>
+  </si>
+  <si>
+    <t>uslugi do definicji typow zlecenia </t>
+  </si>
+  <si>
+    <t>Kuba:
 Dodalem w docu (mail z 28 lipca)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brak cen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kuba:
+Łukasz:
+Zrobione</t>
+  </si>
+  <si>
+    <t>brak cen</t>
+  </si>
+  <si>
+    <t>Kuba:
 Brakuje cen - powinna byc wg mnie tabelka WORK_TYPE z takimi kolumnami
 WORK_TYPE_CODE, PRIZE, COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX, LOCALIZATION, 
 Łukasz:
 Jasne, tabele dodam. Tylko czy jak pojawi się nowy stopień skomplikowanie, np. łatwe albo bardzo trudne to nie trzeba modyfikować kodu ? Gdyby zamiast COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX zrobić jedną kolumnę z wartościami słownikowymi takimi jak w WO to będzie po prostu złączenie. A obecnie trzeba będzie  robić CASE'a w triggerze i dla nowych trudności dodawać przypadek.
 Łukasz:
 To pole LOCALIZATION, to jest to samo co w PERSON pole zawierające lokalizację, czyli miasto gdzie jest biuro?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 Kuba: To jest lokalizacja biura, ktore wykona to zlecenie – ale tu bedzie pytanie do inwestora, czy takie zlecenie ma szanse przejsc do innego biura</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">brak pól w order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kuba:
+  </si>
+  <si>
+    <t>brak pól w order</t>
+  </si>
+  <si>
+    <t>Kuba:
 WORK_TYPE - moze to VERSION oraz koniecznie PRICE, VENTURE_REPRESENTATIVE,  oraz ew. ADDRESS 
 P.S. najlepiej przygotowac jeszcze rekord testowy gdzie WORK_TYPE="OTHER" i wtedy DESCRIPTION, 
 Łukasz:
@@ -209,17 +142,7 @@
 Przedstawiciel inwestora to relacja do Person, gdzie person ma specjalny typ ?
 Adres lokalizacji już jest – referencja z ADDRESS do WORK_ORDER.
 Rekord testowy dodam. Ogólnie trochę jeszcze po zmieniałem, bo były błędy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 Kuba: tak to moze byc specjalna rola w PERSON, ktora nie bedzie miec konta w account</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -227,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -267,8 +190,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,7 +264,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,7 +338,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -431,20 +360,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,115 +390,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="215.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="215.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
     </row>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="issues" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="forms" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,27 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>slowniki w jednej tabelce</t>
-  </si>
-  <si>
-    <t>Kuba:
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slowniki w jednej tabelce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Osobiscie nie podoba mi sie ze slowniki sa w jednej tabelce CODE_*
 Łukasz:
 Nie trzeba wtedy mnożyć tabel słownikowych i uslug do ich wyciągania.
@@ -51,11 +52,13 @@
 </t>
   </si>
   <si>
-    <t>filtry do pobierania orderów</t>
-  </si>
-  <si>
-    <t>Kuba:
-potrzebujemy filtrow - bedziemy filtrowac po
+    <t xml:space="preserve">reopen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtry do pobierania orderów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potrzebujemy filtrow - bedziemy filtrowac po
 a) zakresie dat (zgloszenia i/lub wykonania) 
 b) zlecenia, po lokalizacji biura
 c) typach zlecenia w tym inne - fragment opisu zlecenia?
@@ -68,13 +71,17 @@
 Kuba: Filtrowac bedziemy w tabeli wynikow, zostawiamy jedynie zakres dat – tylko uwaga trzeba sie umowic co to za daty – proponujeostatniej zmiany statusu?
 Łukasz:
 Tak to jest, po typie lub/i po dacie ostatniej modyfikacji (gdzie modyfikacja tylko na różnicę STATUS_CODE): dwa kresy przedziału (przed i po)
+Kuba:
+Kuba: Bedziemy jednak potrzebowac uslug 
+a) do pobierania orderow po statusie – zaakceptowane bez numeru protokolu – do wstawiania numerow protokolu przez prezesa (formularz ID:7) 
+b) do wybierania orderow po przypisaniu – aby modyfikacje na status wykonane mogl zrobic tylko inzynier (formularz ID:5) ktory nad danym zleceniem pracowal
 </t>
   </si>
   <si>
-    <t>po co tabela kontakt</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">po co tabela kontakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Nie kumam co to jest tabela CONTACT wydaje mi sie ze to maja byc ci przedstawiciele inwestora zlecajacy prace ale czemu type?
 Łukasz:
 Hmm… zdaje się, że planowałem powiadomienie mailem dla pracownika jak zostanie przypisane mu zlecenie. Ale w sumie to można dodać pole do PERSON
@@ -84,23 +91,23 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>pole Version w orderze</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole Version w orderze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Czemu WO ma Version? czy to jest trudny latwy? jesli nie to tego brakuje,
 Łukasz:
 Żeby łatwiej przeglądać historię. Teoretycznie data LAST_MOD wystarczy, ale tak od razu jest info, ile razy workordr był zmieniany. Można usunąć.
 Kuba: do usuniecia – nie potrzebne wg mnie</t>
   </si>
   <si>
-    <t>brak współczynnika pracochłonnosci</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">brak współczynnika pracochłonnosci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 nie widze tez parametryzacji wspolczynnikow pracochlonnosci typowych prac wzgledem lokalizacji biura - i to powinno byc per typ pracy
 Łukasz:
 O ile kumam dobrze, to jest to samo co pkt. 7.
@@ -109,19 +116,19 @@
 Jest oddzielna tabelka</t>
   </si>
   <si>
-    <t>uslugi do definicji typow zlecenia </t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">uslugi do definicji typow zlecenia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Dodalem w docu (mail z 28 lipca)
 Łukasz:
 Zrobione</t>
   </si>
   <si>
-    <t>brak cen</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">brak cen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 Brakuje cen - powinna byc wg mnie tabelka WORK_TYPE z takimi kolumnami
 WORK_TYPE_CODE, PRIZE, COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX, LOCALIZATION, 
 Łukasz:
@@ -131,10 +138,10 @@
 Kuba: To jest lokalizacja biura, ktore wykona to zlecenie – ale tu bedzie pytanie do inwestora, czy takie zlecenie ma szanse przejsc do innego biura</t>
   </si>
   <si>
-    <t>brak pól w order</t>
-  </si>
-  <si>
-    <t>Kuba:
+    <t xml:space="preserve">brak pól w order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuba:
 WORK_TYPE - moze to VERSION oraz koniecznie PRICE, VENTURE_REPRESENTATIVE,  oraz ew. ADDRESS 
 P.S. najlepiej przygotowac jeszcze rekord testowy gdzie WORK_TYPE="OTHER" i wtedy DESCRIPTION, 
 Łukasz:
@@ -143,6 +150,154 @@
 Adres lokalizacji już jest – referencja z ADDRESS do WORK_ORDER.
 Rekord testowy dodam. Ogólnie trochę jeszcze po zmieniałem, bo były błędy.
 Kuba: tak to moze byc specjalna rola w PERSON, ktora nie bedzie miec konta w account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spisanie statusow WO do excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do weryfikacji czy trzeba dorobic status dla protokolu? s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nowe typy komentarzy – meta-danych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do przygotowania spec I implementacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">externalID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numer WO czyli externalID jest opcjonalny I moze sie powtarzac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAKRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMULARZ/FUNKCJONALNOSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWAGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzanie WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W przypadku inne prezes wystepuje w roli operator I wprowadza cene z palca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edycja WO / Zmiana Statusu WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceny widoczne, mozliwe do modyfikacji  tylko WO innych niz inne, widocznosc tylko dla Prezes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przypisanie WO do pracownika/pracownikow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Tylko WO typu wyjazdy moga byc przypisane do wiecej niz jednego czlowieka, ale to bedzie na razie tylko wynikalo z GUI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. Operator bedzie mogl zmienic przypisanie takie zlecenie idzie na konto ostatniego wykonujacego – goscia, ktory klepnal wykonalem</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzanie godzin pracy pracownikow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zakonczenie pracy nad przypisanym WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inzynier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmiana kwalifikacji trudne/latwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kierownik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadawanie numeru protokolu WO do rozliczenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prezes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usluga daje wszystkie zaakceptowane nierozliczone WO, ale mozna je oznaczyc na ekranie I tylko zaznaczonym przypisac numer protokolu. Do numeru dodajemy suffix /ID_ZLECAJACEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generacja raportu pracy pracownikow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raport pokazujacy zaangazowanie pracownikow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generacja raportu wykonanych I niezaakceptowanych WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raport do pospieszania inwestorow do akceptacji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzanie nowych typow WO wraz z parametrami – domyslna cena, czasochlonnosc per lokalizacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzanie nowych pracownikow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzanie nowych Inwestorow – Ludzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export danych do excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modyfikacje, korekty – cofniecie statusu, usuniecie protokolu, zmiany czasu pracy etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W zaleznosci od korekty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poczekamy na wdrozenie implementacja po rozpoznaniu faktycznych potrzeb, byc moze wiekszosc przypadkow opedzi edycja WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do decyzji – Mozna na razie zaladowac do tabel stan faktyczny, a zmiany dorobic po zleceniu</t>
   </si>
 </sst>
 </file>
@@ -150,9 +305,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,6 +350,34 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,7 +434,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,8 +459,32 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -299,7 +506,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF990000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -357,23 +564,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,18 +611,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="328.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="215.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,13 +686,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,13 +700,69 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
+      <c r="B12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -511,4 +774,296 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,9 +52,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">reopen</t>
-  </si>
-  <si>
     <t xml:space="preserve">filtry do pobierania orderów</t>
   </si>
   <si>
@@ -75,7 +72,8 @@
 Kuba: Bedziemy jednak potrzebowac uslug 
 a) do pobierania orderow po statusie – zaakceptowane bez numeru protokolu – do wstawiania numerow protokolu przez prezesa (formularz ID:7) 
 b) do wybierania orderow po przypisaniu – aby modyfikacje na status wykonane mogl zrobic tylko inzynier (formularz ID:5) ktory nad danym zleceniem pracowal
-</t>
+Łukasz:
+Dodane</t>
   </si>
   <si>
     <t xml:space="preserve">po co tabela kontakt</t>
@@ -91,9 +89,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
     <t xml:space="preserve">pole Version w orderze</t>
   </si>
   <si>
@@ -101,7 +96,10 @@
 Czemu WO ma Version? czy to jest trudny latwy? jesli nie to tego brakuje,
 Łukasz:
 Żeby łatwiej przeglądać historię. Teoretycznie data LAST_MOD wystarczy, ale tak od razu jest info, ile razy workordr był zmieniany. Można usunąć.
-Kuba: do usuniecia – nie potrzebne wg mnie</t>
+Kuba: do usuniecia – nie potrzebne wg mnie
+Łukasz:
+Usunięte
+</t>
   </si>
   <si>
     <t xml:space="preserve">brak współczynnika pracochłonnosci</t>
@@ -135,7 +133,10 @@
 Jasne, tabele dodam. Tylko czy jak pojawi się nowy stopień skomplikowanie, np. łatwe albo bardzo trudne to nie trzeba modyfikować kodu ? Gdyby zamiast COMPLEXITY_STANDARD, COMPLEXITY_COMPLEX zrobić jedną kolumnę z wartościami słownikowymi takimi jak w WO to będzie po prostu złączenie. A obecnie trzeba będzie  robić CASE'a w triggerze i dla nowych trudności dodawać przypadek.
 Łukasz:
 To pole LOCALIZATION, to jest to samo co w PERSON pole zawierające lokalizację, czyli miasto gdzie jest biuro?
-Kuba: To jest lokalizacja biura, ktore wykona to zlecenie – ale tu bedzie pytanie do inwestora, czy takie zlecenie ma szanse przejsc do innego biura</t>
+Kuba: To jest lokalizacja biura, ktore wykona to zlecenie – ale tu bedzie pytanie do inwestora, czy takie zlecenie ma szanse przejsc do innego biura
+Łukasz:
+Gotowe
+</t>
   </si>
   <si>
     <t xml:space="preserve">brak pól w order</t>
@@ -149,7 +150,14 @@
 Przedstawiciel inwestora to relacja do Person, gdzie person ma specjalny typ ?
 Adres lokalizacji już jest – referencja z ADDRESS do WORK_ORDER.
 Rekord testowy dodam. Ogólnie trochę jeszcze po zmieniałem, bo były błędy.
-Kuba: tak to moze byc specjalna rola w PERSON, ktora nie bedzie miec konta w account</t>
+Kuba: tak to moze byc specjalna rola w PERSON, ktora nie bedzie miec konta w account
+Łukasz:
+Tu mi się trochę pamięć urywa.
+Widzę, że wykomentowałem tabelę ACCOUNT a dane do logowania przeniosłem do  PERSON. Dodałem rolę dla przedstawiciela klienta. W tabeli WORK_ORDER jest description, więc chyba gotowe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
   </si>
   <si>
     <t xml:space="preserve">Spisanie statusow WO do excel</t>
@@ -164,16 +172,25 @@
     <t xml:space="preserve">do przygotowania spec I implementacja</t>
   </si>
   <si>
+    <t xml:space="preserve">reopen</t>
+  </si>
+  <si>
     <t xml:space="preserve">adres</t>
   </si>
   <si>
-    <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo</t>
+    <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo
+Łukasz:
+Potwierdz, że obecny model danych do adresu jest ok ???
+</t>
   </si>
   <si>
     <t xml:space="preserve">externalID</t>
   </si>
   <si>
-    <t xml:space="preserve">numer WO czyli externalID jest opcjonalny I moze sie powtarzac</t>
+    <t xml:space="preserve">numer WO czyli externalID jest opcjonalny I moze sie powtarzac
+Łukasz:
+Pole dodane wraz z wyszukiwaniem po nim
+</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -307,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,14 +369,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF990000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF990000"/>
+      <color rgb="FF999999"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -434,7 +444,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,22 +470,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,7 +524,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF990000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -566,21 +584,21 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="94.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,14 +633,14 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,24 +651,24 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,100 +693,100 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="215.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="196.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="167.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -783,34 +801,34 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="39.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -821,13 +839,13 @@
       <c r="B2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -838,13 +856,13 @@
       <c r="B3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -855,13 +873,13 @@
       <c r="B4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -872,13 +890,13 @@
       <c r="B5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -887,13 +905,13 @@
       <c r="B6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -902,13 +920,13 @@
       <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -917,13 +935,13 @@
       <c r="B8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -934,13 +952,13 @@
       <c r="B9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -951,13 +969,13 @@
       <c r="B10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -968,13 +986,13 @@
       <c r="B11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -983,13 +1001,13 @@
       <c r="B12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -998,13 +1016,13 @@
       <c r="B13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1013,13 +1031,13 @@
       <c r="B14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1028,39 +1046,39 @@
       <c r="B15" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -163,25 +163,69 @@
     <t xml:space="preserve">Spisanie statusow WO do excel</t>
   </si>
   <si>
-    <t xml:space="preserve">Do weryfikacji czy trzeba dorobic status dla protokolu? s</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Do weryfikacji czy trzeba dorobic status dla protokolu? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Kuba: wyjdzie podczas implementacji, na razie zakladamy ze logika bedzie tylko w GUI wydaje sie to prostrze
+OTWARTE – wpisano do systemu
+PRZYPISANE – Przez operatora, rownież po braku akceptacji
+ZAKONCZONE – Z punktu widzenia inzyniera
+WYDANE- Dokumentacja poszla do zleceniodowcy
+ZAAKCEPTOWANE – Przez Zleceniodawce
+ZAMKNIETE – rozliczono protokol
+ZAWIESZONE – Wstrzymano prace</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">nowe typy komentarzy – meta-danych</t>
   </si>
   <si>
-    <t xml:space="preserve">do przygotowania spec I implementacja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reopen</t>
+    <t xml:space="preserve">do przygotowania spec I implementacja
+Kuba: Przygotowalem takie pola:
+ MD_CAPEX VARCHAR(255), --MD stands for META-DATA
+    MD_BUILDING_TYPE VARCHAR(255),
+    MD_CONSTRUCTION_CATEGORY VARCHAR(255),</t>
   </si>
   <si>
     <t xml:space="preserve">adres</t>
   </si>
   <si>
-    <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB2B2B2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo
 Łukasz:
 Potwierdz, że obecny model danych do adresu jest ok ???
+ Kuba:
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB2B2B2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Potwierdzam - ADDRESS_TEXT VARCHAR(100)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">externalID</t>
@@ -193,6 +237,33 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">problem z rolami</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Role – Zdefiniowalimsy 4 role uzytkonikow (VE nie jest uzytkownikem systemu)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Prezes (edycja daty) - PR
+Administrator/Operator - OP
+Kierownik - MG
+Projektant/Inzynier - EG
+Role te nie sa do konca hierarchiczne tj nie ma dziedziczenia np. Administrator nie jest kierownikiem. Jesli wiec mamy relacje 1do1 miedzy osoba a rola, to nie mozemy miec osoby w dwoch rolach np. Musimy dokonac zalozenia ze kierownik jest tez inzynierem jako hardcode oraz ze operator ma badz nie ma w zaleznosci od wymagan uprawnienia kierownika… Dodatkowo musimy dodac modul sprawdzania ACL w Backendzie – np. Zeby nikt znajacy token I zalogowany nie mogl generowac raportow</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -214,16 +285,16 @@
     <t xml:space="preserve">Wprowadzanie WO</t>
   </si>
   <si>
-    <t xml:space="preserve">Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W przypadku inne prezes wystepuje w roli operator I wprowadza cene z palca</t>
+    <t xml:space="preserve">PR+OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W przypadku typu zlecenia “INNE” prezes wystepuje w roli operator I wprowadza cene z palca</t>
   </si>
   <si>
     <t xml:space="preserve">Edycja WO / Zmiana Statusu WO</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceny widoczne, mozliwe do modyfikacji  tylko WO innych niz inne, widocznosc tylko dla Prezes</t>
+    <t xml:space="preserve">Ceny widoczne, mozliwe do modyfikacji  tylko WO innych niz “INNE”, widocznosc “INNYCH” tylko dla Prezes</t>
   </si>
   <si>
     <t xml:space="preserve">Przypisanie WO do pracownika/pracownikow</t>
@@ -257,19 +328,16 @@
     <t xml:space="preserve">Zakonczenie pracy nad przypisanym WO</t>
   </si>
   <si>
-    <t xml:space="preserve">Inzynier</t>
+    <t xml:space="preserve">EN</t>
   </si>
   <si>
     <t xml:space="preserve">Zmiana kwalifikacji trudne/latwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Kierownik</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nadawanie numeru protokolu WO do rozliczenia</t>
   </si>
   <si>
-    <t xml:space="preserve">Prezes</t>
+    <t xml:space="preserve">PR</t>
   </si>
   <si>
     <t xml:space="preserve">Usluga daje wszystkie zaakceptowane nierozliczone WO, ale mozna je oznaczyc na ekranie I tylko zaznaczonym przypisac numer protokolu. Do numeru dodajemy suffix /ID_ZLECAJACEGO</t>
@@ -291,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wprowadzanie nowych typow WO wraz z parametrami – domyslna cena, czasochlonnosc per lokalizacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesli WO jest kontynuacja prac dla tej samej stacji nalezy zaimplementowac autouzupelnianie</t>
   </si>
   <si>
     <t xml:space="preserve">Wprowadzanie nowych pracownikow</t>
@@ -324,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -375,6 +446,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -444,7 +526,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,16 +571,28 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -582,23 +676,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="94.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -737,56 +831,70 @@
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -801,52 +909,51 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="39.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="48.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>39</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -854,16 +961,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>41</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -871,214 +978,216 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="E15" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="14"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="14"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>65</v>
+      <c r="C20" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -163,23 +163,8 @@
     <t xml:space="preserve">Spisanie statusow WO do excel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Do weryfikacji czy trzeba dorobic status dla protokolu? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Kuba: wyjdzie podczas implementacji, na razie zakladamy ze logika bedzie tylko w GUI wydaje sie to prostrze
+    <t xml:space="preserve">Do weryfikacji czy trzeba dorobic status dla protokolu? 
+Kuba: wyjdzie podczas implementacji, na razie zakladamy ze logika bedzie tylko w GUI wydaje sie to prostrze
 OTWARTE – wpisano do systemu
 PRZYPISANE – Przez operatora, rownież po braku akceptacji
 ZAKONCZONE – Z punktu widzenia inzyniera
@@ -187,7 +172,6 @@
 ZAAKCEPTOWANE – Przez Zleceniodawce
 ZAMKNIETE – rozliczono protokol
 ZAWIESZONE – Wstrzymano prace</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">nowe typy komentarzy – meta-danych</t>
@@ -203,29 +187,11 @@
     <t xml:space="preserve">adres</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB2B2B2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo
+    <t xml:space="preserve">adres to text zdefiniowany poza WO – relacja jeden do wielu – kopiowanie adresow miedzy wo
 Łukasz:
 Potwierdz, że obecny model danych do adresu jest ok ???
  Kuba:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB2B2B2"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Potwierdzam - ADDRESS_TEXT VARCHAR(100)</t>
-    </r>
+Potwierdzam - ADDRESS_TEXT VARCHAR(100)</t>
   </si>
   <si>
     <t xml:space="preserve">externalID</t>
@@ -237,31 +203,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">problem z rolami</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Role – Zdefiniowalimsy 4 role uzytkonikow (VE nie jest uzytkownikem systemu)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Prezes (edycja daty) - PR
+    <t xml:space="preserve">hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uproszczenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role – Zdefiniowalimsy 4 role uzytkonikow (VE nie jest uzytkownikem systemu)
+Prezes (edycja daty) - PR
 Administrator/Operator - OP
 Kierownik - MG
 Projektant/Inzynier - EG
-Role te nie sa do konca hierarchiczne tj nie ma dziedziczenia np. Administrator nie jest kierownikiem. Jesli wiec mamy relacje 1do1 miedzy osoba a rola, to nie mozemy miec osoby w dwoch rolach np. Musimy dokonac zalozenia ze kierownik jest tez inzynierem jako hardcode oraz ze operator ma badz nie ma w zaleznosci od wymagan uprawnienia kierownika… Dodatkowo musimy dodac modul sprawdzania ACL w Backendzie – np. Zeby nikt znajacy token I zalogowany nie mogl generowac raportow</t>
-    </r>
+Mamy obecnie uproszczenie ze osoba nie moze byc w 2 rolach….  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezpieczenstwo api – ACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dodac modul sprawdzania ACL w Backendzie – np. Zeby nikt znajacy token I zalogowany nie mogl generowac raportow</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -395,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -447,14 +406,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFB2B2B2"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -526,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,11 +542,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,23 +635,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,18 +836,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
+      <c r="C15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -916,27 +889,27 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>36</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -944,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="15" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -961,16 +934,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>42</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -978,16 +951,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,61 +968,61 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,16 +1030,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>53</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,16 +1047,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,80 +1081,80 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="15"/>
+      <c r="C12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="C15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="17"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t xml:space="preserve">dodac modul sprawdzania ACL w Backendzie – np. Zeby nikt znajacy token I zalogowany nie mogl generowac raportow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api – metody do wo I/lub osob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak relacji przypisania wo do pracownika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api – metody do wo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak informacji o dacie zalozenia (rejestracji) wo – jest tylko data modyfikacji, wg mnie pierwsza data powinna byc w rekordzie zwracanym przez uslugi do wo</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -330,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">Export danych do excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrobilem z ekranu wo</t>
   </si>
   <si>
     <t xml:space="preserve">NIE</t>
@@ -635,23 +650,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,6 +877,34 @@
       </c>
       <c r="D15" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -882,34 +925,35 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -917,16 +961,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -934,16 +978,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -951,16 +995,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -983,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -998,13 +1042,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="16"/>
     </row>
@@ -1013,16 +1057,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,16 +1074,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,16 +1091,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,16 +1108,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,13 +1125,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="16"/>
     </row>
@@ -1096,13 +1140,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13" s="16"/>
     </row>
@@ -1111,31 +1155,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,15 +1192,15 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="18"/>
     </row>
-    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">PR+OP</t>
   </si>
   <si>
-    <t xml:space="preserve">W przypadku typu zlecenia “INNE” prezes wystepuje w roli operator I wprowadza cene z palca</t>
+    <t xml:space="preserve">W przypadku typu zlecenia “INNE” prezes wystepuje w roli operator I wprowadza cene z palca moze ja tez pozniej edytowac</t>
   </si>
   <si>
     <t xml:space="preserve">Edycja WO / Zmiana Statusu WO</t>
@@ -289,20 +289,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. Operator bedzie mogl zmienic przypisanie takie zlecenie idzie na konto ostatniego wykonujacego – goscia, ktory klepnal wykonalem</t>
+      <t xml:space="preserve">2. Operator bedzie mogl zmienic przypisanie takie zlecenie idzie na konto ostatniego wykonujacego – goscia, ktory klepnal wykonalem
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. Oddzielne API do przypisania z jednej osoby na druga, oddzielne do przypisania drugiej osobie nie kasujace poprzedniego przypisania</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Wprowadzanie godzin pracy pracownikow</t>
   </si>
   <si>
+    <t xml:space="preserve">Rejestrujemy ilosc przesiedzianych godzin w danym dniu (dacie)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zakonczenie pracy nad przypisanym WO</t>
   </si>
   <si>
     <t xml:space="preserve">EN</t>
   </si>
   <si>
+    <t xml:space="preserve">Konczy tez “prace” innego inzyniera, ktory byl przypisany do tego zadania (wiele-do-wielu)  (o ile do bylo zadanie przypisane do dwoch, a nie przepisane z jednego na drugiego)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zmiana kwalifikacji trudne/latwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR+KIER</t>
   </si>
   <si>
     <t xml:space="preserve">Nadawanie numeru protokolu WO do rozliczenia</t>
@@ -369,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -439,6 +457,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -652,7 +675,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -662,11 +685,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,18 +948,17 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="37.2602040816326"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +1012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="148.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1020,9 +1042,11 @@
       <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1030,12 +1054,14 @@
         <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1045,10 +1071,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16"/>
     </row>
@@ -1060,13 +1086,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,13 +1103,13 @@
         <v>44</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,13 +1120,13 @@
         <v>44</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,16 +1134,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,10 +1151,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>46</v>
@@ -1140,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>46</v>
@@ -1155,16 +1181,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,16 +1198,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,10 +1223,10 @@
     </row>
     <row r="20" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/doc/topics.xlsx
+++ b/doc/topics.xlsx
@@ -297,8 +297,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3. Oddzielne API do przypisania z jednej osoby na druga, oddzielne do przypisania drugiej osobie nie kasujace poprzedniego przypisania</t>
+      <t xml:space="preserve">3. Nie potrzebne jest iddzielne API do przypisania z jednej osoby na druga, oddzielne do przypisania drugiej osobie nie kasujace poprzedniego przypisania – front zadba zeby skasowac relacje jesli jest to potrzebne</t>
     </r>
   </si>
   <si>
@@ -387,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -457,11 +458,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -686,10 +682,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,17 +944,17 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
